--- a/TransactionUtility/Excel/Mapping.xlsx
+++ b/TransactionUtility/Excel/Mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9335" tabRatio="708" activeTab="2"/>
+    <workbookView windowWidth="22488" windowHeight="9335" tabRatio="708" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="7" r:id="rId1"/>
@@ -37,10 +37,10 @@
     <t>Alias</t>
   </si>
   <si>
-    <t>IsCalculated</t>
-  </si>
-  <si>
-    <t>EvaluationQuery</t>
+    <t>IsComputed</t>
+  </si>
+  <si>
+    <t>ComputeQuery</t>
   </si>
   <si>
     <t>Remarks</t>
@@ -67,7 +67,7 @@
     <t>IsNullable</t>
   </si>
   <si>
-    <t>Formula</t>
+    <t>ComputeFormula</t>
   </si>
   <si>
     <t>Segment</t>
@@ -157,9 +157,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -191,6 +191,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -200,22 +236,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,36 +251,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,10 +274,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,13 +297,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -313,24 +306,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -341,6 +320,27 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -357,25 +357,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,13 +495,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,7 +519,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,127 +537,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,24 +566,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -595,6 +577,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,6 +615,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -638,21 +644,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -663,153 +654,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1206,13 +1206,15 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="C7 E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="17.1" style="7" customWidth="1"/>
+    <col min="1" max="2" width="17.1" style="7" customWidth="1"/>
+    <col min="3" max="3" width="16.1" style="7" customWidth="1"/>
+    <col min="4" max="4" width="20.6" style="7" customWidth="1"/>
     <col min="5" max="5" width="41.2" style="7" customWidth="1"/>
     <col min="6" max="16384" width="9" style="8"/>
   </cols>
@@ -1282,8 +1284,8 @@
   <sheetPr/>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -1516,7 +1518,7 @@
       <c r="D12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
         <v>28</v>
       </c>

--- a/TransactionUtility/Excel/Mapping.xlsx
+++ b/TransactionUtility/Excel/Mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9335" tabRatio="708" activeTab="1"/>
+    <workbookView windowWidth="22488" windowHeight="9335" tabRatio="708" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="7" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -156,9 +156,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -206,14 +206,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,16 +244,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,13 +260,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -273,9 +275,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,6 +290,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -297,46 +328,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,187 +357,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,17 +566,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,15 +586,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,17 +605,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,20 +657,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,168 +668,167 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1174,24 +1173,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="9.3" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.6" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.8" style="2"/>
+    <col min="1" max="1" width="9.3" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.8" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1206,17 +1205,17 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="C7 E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="17.1" style="7" customWidth="1"/>
-    <col min="3" max="3" width="16.1" style="7" customWidth="1"/>
-    <col min="4" max="4" width="20.6" style="7" customWidth="1"/>
-    <col min="5" max="5" width="41.2" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="8"/>
+    <col min="1" max="2" width="17.1" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.1" style="6" customWidth="1"/>
+    <col min="4" max="4" width="20.6" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.2" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1259,19 +1258,19 @@
       <c r="E3" s="4"/>
     </row>
     <row r="5" spans="5:5">
-      <c r="E5" s="8"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="5:5">
-      <c r="E6" s="8"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="5:5">
-      <c r="E7" s="8"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="5:5">
-      <c r="E8" s="8"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="5:5">
-      <c r="E9" s="8"/>
+      <c r="E9" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1285,18 +1284,18 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1"/>
+      <selection activeCell="B5" sqref="B5:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="17.1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.8" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.8" style="2" customWidth="1"/>
-    <col min="4" max="6" width="17.1" style="2" customWidth="1"/>
-    <col min="7" max="7" width="46" style="2" customWidth="1"/>
-    <col min="8" max="8" width="31.7" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="17.1" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.8" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.8" style="1" customWidth="1"/>
+    <col min="4" max="6" width="17.1" style="1" customWidth="1"/>
+    <col min="7" max="7" width="46" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.7" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1329,10 +1328,10 @@
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1347,10 +1346,10 @@
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1365,10 +1364,10 @@
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1383,10 +1382,10 @@
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1401,10 +1400,10 @@
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -1419,10 +1418,10 @@
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1437,10 +1436,10 @@
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1455,10 +1454,10 @@
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -1473,10 +1472,10 @@
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1491,10 +1490,10 @@
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1539,24 +1538,24 @@
   <sheetPr/>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="14.9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.4" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.6" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.8" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.6" style="2" customWidth="1"/>
-    <col min="9" max="9" width="22.7" style="2" customWidth="1"/>
-    <col min="10" max="10" width="24.1" style="2" customWidth="1"/>
-    <col min="11" max="11" width="35.4" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.8" style="2"/>
+    <col min="1" max="1" width="17.9" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.3" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.3" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.3" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.3" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.6" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.1" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.4" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.8" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1594,7 +1593,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" s="1" customFormat="1" spans="1:11">
       <c r="A2" s="4" t="s">
         <v>41</v>
       </c>
@@ -1610,12 +1609,18 @@
       <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="I2" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>

--- a/TransactionUtility/Excel/Mapping.xlsx
+++ b/TransactionUtility/Excel/Mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9335" tabRatio="708" activeTab="3"/>
+    <workbookView windowWidth="28245" windowHeight="12510" tabRatio="708" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="7" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -58,6 +58,15 @@
     <t>SVL</t>
   </si>
   <si>
+    <t>AHT2</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>select * from [AHT]</t>
+  </si>
+  <si>
     <t>DataFieldName</t>
   </si>
   <si>
@@ -67,6 +76,12 @@
     <t>IsNullable</t>
   </si>
   <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>DefaultValue</t>
+  </si>
+  <si>
     <t>ComputeFormula</t>
   </si>
   <si>
@@ -101,9 +116,6 @@
   </si>
   <si>
     <t>Calculated Price</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>[Units Sold]*[Manufacturing Price]</t>
@@ -156,10 +168,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -188,6 +200,59 @@
       <sz val="12"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -198,15 +263,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,37 +340,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -259,88 +347,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -357,187 +369,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,6 +574,17 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,6 +613,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -605,37 +643,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,148 +680,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1171,7 +1183,7 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="9.3" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.6" style="1" customWidth="1"/>
@@ -1206,14 +1218,14 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="B13:C13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="17.1" style="6" customWidth="1"/>
     <col min="3" max="3" width="16.1" style="6" customWidth="1"/>
-    <col min="4" max="4" width="20.6" style="6" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="6" customWidth="1"/>
     <col min="5" max="5" width="41.2" style="6" customWidth="1"/>
     <col min="6" max="16384" width="9" style="7"/>
   </cols>
@@ -1256,6 +1268,21 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="5:5">
       <c r="E5" s="7"/>
@@ -1281,194 +1308,216 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="17.1" style="2" customWidth="1"/>
     <col min="2" max="2" width="23.8" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.8" style="1" customWidth="1"/>
-    <col min="4" max="6" width="17.1" style="1" customWidth="1"/>
-    <col min="7" max="7" width="46" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.7" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="4" max="8" width="17.1" style="1" customWidth="1"/>
+    <col min="9" max="9" width="46" style="1" customWidth="1"/>
+    <col min="10" max="10" width="31.7" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1479,14 +1528,16 @@
         <v>0</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -1497,34 +1548,198 @@
         <v>1</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="4"/>
+      <c r="C18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1538,11 +1753,11 @@
   <sheetPr/>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="17.9" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.3" style="2" customWidth="1"/>
@@ -1560,66 +1775,66 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:11">
       <c r="A2" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>

--- a/TransactionUtility/Excel/Mapping.xlsx
+++ b/TransactionUtility/Excel/Mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12510" tabRatio="708" activeTab="2"/>
+    <workbookView windowWidth="22488" windowHeight="9335" tabRatio="708" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="7" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -58,13 +58,16 @@
     <t>SVL</t>
   </si>
   <si>
+    <t>Compute1</t>
+  </si>
+  <si>
     <t>AHT2</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>select * from [AHT]</t>
+    <t>SELECT * FROM [AHT]</t>
   </si>
   <si>
     <t>DataFieldName</t>
@@ -168,10 +171,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -198,6 +201,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -212,6 +222,112 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,74 +341,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -308,51 +356,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -369,187 +372,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,17 +577,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,6 +620,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -639,15 +640,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,153 +667,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -844,11 +847,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1183,7 +1186,7 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="9.3" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.6" style="1" customWidth="1"/>
@@ -1215,19 +1218,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="17.1" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.1" style="6" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.2" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="7"/>
+    <col min="1" max="2" width="17.1" style="7" customWidth="1"/>
+    <col min="3" max="3" width="16.1" style="7" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="41.2" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1269,35 +1272,32 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" s="6" customFormat="1" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="5:5">
-      <c r="E5" s="7"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="5:5">
-      <c r="E6" s="7"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="5:5">
-      <c r="E7" s="7"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="5:5">
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="5:5">
-      <c r="E9" s="7"/>
+      <c r="E8" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1310,11 +1310,11 @@
   <sheetPr/>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="17.1" style="2" customWidth="1"/>
     <col min="2" max="2" width="23.8" style="2" customWidth="1"/>
@@ -1330,28 +1330,28 @@
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>8</v>
@@ -1362,13 +1362,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1382,13 +1382,13 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1402,13 +1402,13 @@
         <v>10</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1422,13 +1422,13 @@
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1442,13 +1442,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1462,13 +1462,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1482,13 +1482,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1502,13 +1502,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1548,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1562,37 +1562,37 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1603,16 +1603,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1623,16 +1623,16 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1643,16 +1643,16 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1663,16 +1663,16 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1683,16 +1683,16 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1703,16 +1703,16 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1723,16 +1723,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1757,7 +1757,7 @@
       <selection activeCell="F2" sqref="F2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="17.9" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.3" style="2" customWidth="1"/>
@@ -1775,66 +1775,66 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:11">
       <c r="A2" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
